--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7000,6 +7000,111 @@
       <c r="E317" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>348.25</v>
+      </c>
+      <c r="C318" t="n">
+        <v>321.3436842105263</v>
+      </c>
+      <c r="D318" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>345.7666666666667</v>
+      </c>
+      <c r="C319" t="n">
+        <v>324.2642105263158</v>
+      </c>
+      <c r="D319" t="n">
+        <v>320.1633333333333</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>345.9866666666667</v>
+      </c>
+      <c r="C320" t="n">
+        <v>320.7663157894737</v>
+      </c>
+      <c r="D320" t="n">
+        <v>326.1633333333333</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>351.34</v>
+      </c>
+      <c r="C321" t="n">
+        <v>327.4910526315789</v>
+      </c>
+      <c r="D321" t="n">
+        <v>329.98</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>354.8633333333333</v>
+      </c>
+      <c r="C322" t="n">
+        <v>335.8615789473685</v>
+      </c>
+      <c r="D322" t="n">
+        <v>340.6266666666667</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10322,6 +10427,56 @@
       </c>
       <c r="B330" t="n">
         <v>0.68</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10645,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1927107594233968</v>
+        <v>0.2113797176150978</v>
       </c>
       <c r="J2" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K2" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02394991685878223</v>
+        <v>0.02942904498790444</v>
       </c>
       <c r="M2" t="n">
-        <v>6.794149252151131</v>
+        <v>6.764152082342363</v>
       </c>
       <c r="N2" t="n">
-        <v>77.25765495570212</v>
+        <v>76.67018322216735</v>
       </c>
       <c r="O2" t="n">
-        <v>8.789633380050736</v>
+        <v>8.756151164876458</v>
       </c>
       <c r="P2" t="n">
-        <v>338.7375249878299</v>
+        <v>338.5513667808716</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -10567,28 +10722,28 @@
         <v>0.1012</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1886613049870864</v>
+        <v>0.20329183676186</v>
       </c>
       <c r="J3" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02463372053589796</v>
+        <v>0.02919189663250998</v>
       </c>
       <c r="M3" t="n">
-        <v>6.465163803701995</v>
+        <v>6.439957894577731</v>
       </c>
       <c r="N3" t="n">
-        <v>70.92719257729468</v>
+        <v>70.5576361468936</v>
       </c>
       <c r="O3" t="n">
-        <v>8.42182833933907</v>
+        <v>8.399859293279476</v>
       </c>
       <c r="P3" t="n">
-        <v>316.7976248216865</v>
+        <v>316.6512144900713</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -10644,28 +10799,28 @@
         <v>0.0633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04410694028051311</v>
+        <v>0.06368302005032546</v>
       </c>
       <c r="J4" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K4" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000971321426649796</v>
+        <v>0.002069455493204808</v>
       </c>
       <c r="M4" t="n">
-        <v>7.818153630603236</v>
+        <v>7.802675474562569</v>
       </c>
       <c r="N4" t="n">
-        <v>99.59766941456964</v>
+        <v>99.24238694641861</v>
       </c>
       <c r="O4" t="n">
-        <v>9.979863196185088</v>
+        <v>9.962047327051735</v>
       </c>
       <c r="P4" t="n">
-        <v>322.7697932408688</v>
+        <v>322.5715104214099</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -10702,7 +10857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19077,6 +19232,141 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-35.46287997793107,174.43600089968837</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-35.46339870602075,174.4367048299912</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-35.46360863847698,174.43757178738494</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-35.46290052966006,174.43599004943437</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-35.46337453610223,174.43671759038514</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-35.46370452851791,174.43752116330168</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-35.46289870897001,174.43599101066513</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-35.46340348425102,174.43670230734622</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-35.46365487314821,174.43754737831912</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-35.462854405509944,174.43601440060098</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-35.46334783115024,174.43673168912858</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-35.46362328681306,174.4375640539667</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-35.46282524687916,174.43602979483532</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-35.46327855768742,174.43676826165446</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-35.46353517609902,174.43761057094613</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -10490,7 +10490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10581,35 +10581,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -10668,27 +10673,28 @@
       <c r="P2" t="n">
         <v>338.5513667808716</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.43447926295164 -35.46576203865828, 174.43852010246064 -35.458107994730575)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4344792629516</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.46576203865828</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4385201024606</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.45810799473058</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4364996827061</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.46193501669443</v>
       </c>
     </row>
@@ -10745,27 +10751,28 @@
       <c r="P3" t="n">
         <v>316.6512144900713</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.43530076643404 -35.46605809932231, 174.43934156353416 -35.45840404883993)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.435300766434</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.46605809932231</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4393415635342</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.45840404883993</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4373211649841</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.46223107408112</v>
       </c>
     </row>
@@ -10822,27 +10829,28 @@
       <c r="P4" t="n">
         <v>322.5715104214099</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.43612226991692 -35.466354158896316, 174.44016302460676 -35.458700101860124)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4361222699169</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.46635415889632</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4401630246068</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.45870010186012</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4381426472618</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.46252713037822</v>
       </c>
     </row>

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E322"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7103,6 +7103,63 @@
         <v>340.6266666666667</v>
       </c>
       <c r="E322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>353.7366666666667</v>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>365.0466666666666</v>
+      </c>
+      <c r="C324" t="n">
+        <v>341.4247368421052</v>
+      </c>
+      <c r="D324" t="n">
+        <v>328.9933333333333</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="n">
+        <v>306.1605263157895</v>
+      </c>
+      <c r="D325" t="n">
+        <v>306.4033333333333</v>
+      </c>
+      <c r="E325" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7119,7 +7176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10477,6 +10534,36 @@
       </c>
       <c r="B335" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -10650,28 +10737,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2113797176150978</v>
+        <v>0.2318154096048009</v>
       </c>
       <c r="J2" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K2" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02942904498790444</v>
+        <v>0.0348961831975082</v>
       </c>
       <c r="M2" t="n">
-        <v>6.764152082342363</v>
+        <v>6.810087900633333</v>
       </c>
       <c r="N2" t="n">
-        <v>76.67018322216735</v>
+        <v>77.91144376727281</v>
       </c>
       <c r="O2" t="n">
-        <v>8.756151164876458</v>
+        <v>8.826745933087279</v>
       </c>
       <c r="P2" t="n">
-        <v>338.5513667808716</v>
+        <v>338.3459776463324</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10728,28 +10815,28 @@
         <v>0.1012</v>
       </c>
       <c r="I3" t="n">
-        <v>0.20329183676186</v>
+        <v>0.2057791997202129</v>
       </c>
       <c r="J3" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02919189663250998</v>
+        <v>0.02948146526170181</v>
       </c>
       <c r="M3" t="n">
-        <v>6.439957894577731</v>
+        <v>6.513098860541674</v>
       </c>
       <c r="N3" t="n">
-        <v>70.5576361468936</v>
+        <v>72.13890384213929</v>
       </c>
       <c r="O3" t="n">
-        <v>8.399859293279476</v>
+        <v>8.493462417773996</v>
       </c>
       <c r="P3" t="n">
-        <v>316.6512144900713</v>
+        <v>316.6265780456841</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10806,28 +10893,28 @@
         <v>0.0633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06368302005032546</v>
+        <v>0.05490878012835955</v>
       </c>
       <c r="J4" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002069455493204808</v>
+        <v>0.001544295802989204</v>
       </c>
       <c r="M4" t="n">
-        <v>7.802675474562569</v>
+        <v>7.82862915943614</v>
       </c>
       <c r="N4" t="n">
-        <v>99.24238694641861</v>
+        <v>99.69585000567689</v>
       </c>
       <c r="O4" t="n">
-        <v>9.962047327051735</v>
+        <v>9.984780919262921</v>
       </c>
       <c r="P4" t="n">
-        <v>322.5715104214099</v>
+        <v>322.6615745385772</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10865,7 +10952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E322"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19375,6 +19462,75 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-35.46283457102052,174.4360248721769</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-35.46274097097762,174.436074288044</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-35.46323251766017,174.436792568185</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-35.46363145236366,174.43755974305813</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-35.463524359957766,174.43663849146023</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-35.46381840481227,174.43746104340988</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7152,7 +7152,9 @@
           <t>2025-04-27 22:11:08+00:00</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr"/>
+      <c r="B325" t="n">
+        <v>323.4366666666667</v>
+      </c>
       <c r="C325" t="n">
         <v>306.1605263157895</v>
       </c>
@@ -7160,6 +7162,90 @@
         <v>306.4033333333333</v>
       </c>
       <c r="E325" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>342.0433333333333</v>
+      </c>
+      <c r="C326" t="n">
+        <v>321.3542105263158</v>
+      </c>
+      <c r="D326" t="n">
+        <v>326.6166666666667</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>340.0366666666666</v>
+      </c>
+      <c r="C327" t="n">
+        <v>321.9584210526315</v>
+      </c>
+      <c r="D327" t="n">
+        <v>328.6633333333333</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>349.7033333333334</v>
+      </c>
+      <c r="C328" t="n">
+        <v>334.4326315789473</v>
+      </c>
+      <c r="D328" t="n">
+        <v>338.2466666666667</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>341.0233333333334</v>
+      </c>
+      <c r="C329" t="n">
+        <v>321.9257894736842</v>
+      </c>
+      <c r="D329" t="n">
+        <v>323.6966666666667</v>
+      </c>
+      <c r="E329" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7176,7 +7262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10564,6 +10650,46 @@
       </c>
       <c r="B338" t="n">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -10737,28 +10863,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2318154096048009</v>
+        <v>0.2157455516913191</v>
       </c>
       <c r="J2" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K2" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0348961831975082</v>
+        <v>0.03078630225412526</v>
       </c>
       <c r="M2" t="n">
-        <v>6.810087900633333</v>
+        <v>6.822704105650518</v>
       </c>
       <c r="N2" t="n">
-        <v>77.91144376727281</v>
+        <v>78.24317069758995</v>
       </c>
       <c r="O2" t="n">
-        <v>8.826745933087279</v>
+        <v>8.845516983059269</v>
       </c>
       <c r="P2" t="n">
-        <v>338.3459776463324</v>
+        <v>338.5082848251701</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10815,28 +10941,28 @@
         <v>0.1012</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2057791997202129</v>
+        <v>0.2135548193956253</v>
       </c>
       <c r="J3" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02948146526170181</v>
+        <v>0.03234324706592717</v>
       </c>
       <c r="M3" t="n">
-        <v>6.513098860541674</v>
+        <v>6.474336406597889</v>
       </c>
       <c r="N3" t="n">
-        <v>72.13890384213929</v>
+        <v>71.71337346168718</v>
       </c>
       <c r="O3" t="n">
-        <v>8.493462417773996</v>
+        <v>8.468374900870129</v>
       </c>
       <c r="P3" t="n">
-        <v>316.6265780456841</v>
+        <v>316.5477112802986</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10893,28 +11019,28 @@
         <v>0.0633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05490878012835955</v>
+        <v>0.06848548148327414</v>
       </c>
       <c r="J4" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K4" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001544295802989204</v>
+        <v>0.002450516876694064</v>
       </c>
       <c r="M4" t="n">
-        <v>7.82862915943614</v>
+        <v>7.791846938917857</v>
       </c>
       <c r="N4" t="n">
-        <v>99.69585000567689</v>
+        <v>99.13609338777519</v>
       </c>
       <c r="O4" t="n">
-        <v>9.984780919262921</v>
+        <v>9.956710972393202</v>
       </c>
       <c r="P4" t="n">
-        <v>322.6615745385772</v>
+        <v>322.5220743103405</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10952,7 +11078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19514,7 +19640,11 @@
           <t>2025-04-27 22:11:08+00:00</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr"/>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-35.463085329662775,174.43589248429132</t>
+        </is>
+      </c>
       <c r="C325" t="inlineStr">
         <is>
           <t>-35.463524359957766,174.43663849146023</t>
@@ -19526,6 +19656,114 @@
         </is>
       </c>
       <c r="E325" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-35.46293134345875,174.4359737813253</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-35.46339861890625,174.43670487598294</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-35.46365112140896,174.43754935900805</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-35.46294795035746,174.43596501372704</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-35.46339361853395,174.43670751590645</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-35.46363418340927,174.4375583012338</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.46286795034158,174.4360072496332</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.46329038348364,174.4367620182981</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.463554872734726,174.4376001723563</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-35.46293978483924,174.435969324706</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-35.4633938885889,174.43670737333218</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-35.46367528702306,174.43753660103795</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E329"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7246,6 +7246,65 @@
         <v>323.6966666666667</v>
       </c>
       <c r="E329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>347.5233333333333</v>
+      </c>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>346.9066666666666</v>
+      </c>
+      <c r="C331" t="n">
+        <v>321.4073684210526</v>
+      </c>
+      <c r="D331" t="n">
+        <v>331.6333333333333</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>340.58</v>
+      </c>
+      <c r="C332" t="n">
+        <v>322.3068421052632</v>
+      </c>
+      <c r="D332" t="n">
+        <v>328.61</v>
+      </c>
+      <c r="E332" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7262,7 +7321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10690,6 +10749,36 @@
       </c>
       <c r="B342" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -10863,28 +10952,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2157455516913191</v>
+        <v>0.2174565153772748</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03078630225412526</v>
+        <v>0.03183952869858786</v>
       </c>
       <c r="M2" t="n">
-        <v>6.822704105650518</v>
+        <v>6.787681125373472</v>
       </c>
       <c r="N2" t="n">
-        <v>78.24317069758995</v>
+        <v>77.59371113286453</v>
       </c>
       <c r="O2" t="n">
-        <v>8.845516983059269</v>
+        <v>8.808729257552676</v>
       </c>
       <c r="P2" t="n">
-        <v>338.5082848251701</v>
+        <v>338.4909359571653</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10941,28 +11030,28 @@
         <v>0.1012</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2135548193956253</v>
+        <v>0.213279856126781</v>
       </c>
       <c r="J3" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03234324706592717</v>
+        <v>0.03270156342537023</v>
       </c>
       <c r="M3" t="n">
-        <v>6.474336406597889</v>
+        <v>6.435940247242511</v>
       </c>
       <c r="N3" t="n">
-        <v>71.71337346168718</v>
+        <v>71.25959483441459</v>
       </c>
       <c r="O3" t="n">
-        <v>8.468374900870129</v>
+        <v>8.441539837874046</v>
       </c>
       <c r="P3" t="n">
-        <v>316.5477112802986</v>
+        <v>316.5505106565747</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11019,28 +11108,28 @@
         <v>0.0633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06848548148327414</v>
+        <v>0.0759923202175134</v>
       </c>
       <c r="J4" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002450516876694064</v>
+        <v>0.003050310710273174</v>
       </c>
       <c r="M4" t="n">
-        <v>7.791846938917857</v>
+        <v>7.775816342435742</v>
       </c>
       <c r="N4" t="n">
-        <v>99.13609338777519</v>
+        <v>98.73125742541291</v>
       </c>
       <c r="O4" t="n">
-        <v>9.956710972393202</v>
+        <v>9.936360371152654</v>
       </c>
       <c r="P4" t="n">
-        <v>322.5220743103405</v>
+        <v>322.4444674980123</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11078,7 +11167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E329"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19769,6 +19858,79 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-35.462885991725685,174.43599772471526</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-35.46289109517519,174.435995030357</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-35.46339817897801,174.43670510824103</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-35.463609603998194,174.43757127764937</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-35.46294345380522,174.4359673876784</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-35.46339073504397,174.43670903823156</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-35.46363462479037,174.43755806821167</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E332"/>
+  <dimension ref="A1:E335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7305,6 +7305,69 @@
         <v>328.61</v>
       </c>
       <c r="E332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>339.3233333333333</v>
+      </c>
+      <c r="C333" t="n">
+        <v>321.1863157894737</v>
+      </c>
+      <c r="D333" t="n">
+        <v>320.8266666666667</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>341.5466666666666</v>
+      </c>
+      <c r="C334" t="n">
+        <v>316.2178947368421</v>
+      </c>
+      <c r="D334" t="n">
+        <v>323.2533333333333</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>340.7066666666666</v>
+      </c>
+      <c r="C335" t="n">
+        <v>312.1863157894737</v>
+      </c>
+      <c r="D335" t="n">
+        <v>314.2833333333333</v>
+      </c>
+      <c r="E335" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7321,7 +7384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10779,6 +10842,36 @@
       </c>
       <c r="B345" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -10952,28 +11045,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2174565153772748</v>
+        <v>0.2108018294660839</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03183952869858786</v>
+        <v>0.03051143996868788</v>
       </c>
       <c r="M2" t="n">
-        <v>6.787681125373472</v>
+        <v>6.759354151524073</v>
       </c>
       <c r="N2" t="n">
-        <v>77.59371113286453</v>
+        <v>76.9831639287987</v>
       </c>
       <c r="O2" t="n">
-        <v>8.808729257552676</v>
+        <v>8.774005010757556</v>
       </c>
       <c r="P2" t="n">
-        <v>338.4909359571653</v>
+        <v>338.5590250049108</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11030,28 +11123,28 @@
         <v>0.1012</v>
       </c>
       <c r="I3" t="n">
-        <v>0.213279856126781</v>
+        <v>0.2027814216090104</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K3" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03270156342537023</v>
+        <v>0.03008417727246837</v>
       </c>
       <c r="M3" t="n">
-        <v>6.435940247242511</v>
+        <v>6.42322332747639</v>
       </c>
       <c r="N3" t="n">
-        <v>71.25959483441459</v>
+        <v>70.99798345521067</v>
       </c>
       <c r="O3" t="n">
-        <v>8.441539837874046</v>
+        <v>8.426030112408256</v>
       </c>
       <c r="P3" t="n">
-        <v>316.5505106565747</v>
+        <v>316.6580921613051</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11108,28 +11201,28 @@
         <v>0.0633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0759923202175134</v>
+        <v>0.06659644142748311</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K4" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003050310710273174</v>
+        <v>0.002383686893025483</v>
       </c>
       <c r="M4" t="n">
-        <v>7.775816342435742</v>
+        <v>7.752175028993994</v>
       </c>
       <c r="N4" t="n">
-        <v>98.73125742541291</v>
+        <v>98.15895401788222</v>
       </c>
       <c r="O4" t="n">
-        <v>9.936360371152654</v>
+        <v>9.907520074059009</v>
       </c>
       <c r="P4" t="n">
-        <v>322.4444674980123</v>
+        <v>322.5420524802154</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11167,7 +11260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E332"/>
+  <dimension ref="A1:E335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19931,6 +20024,87 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-35.462953853806354,174.43596189700523</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-35.46340000838251,174.43670414241527</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-35.46369903884119,174.437524061519</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-35.462935453804164,174.4359716112722</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-35.46344112642434,174.43668243432063</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-35.463678956003186,174.43753466403956</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-35.462942405529226,174.43596794111488</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-35.46347449127338,174.43666481947378</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-35.46375319077503,174.43749547255416</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E335"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7368,6 +7368,27 @@
         <v>314.2833333333333</v>
       </c>
       <c r="E335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>340.48</v>
+      </c>
+      <c r="C336" t="n">
+        <v>317.841052631579</v>
+      </c>
+      <c r="D336" t="n">
+        <v>327.35</v>
+      </c>
+      <c r="E336" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7384,7 +7405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10872,6 +10893,16 @@
       </c>
       <c r="B348" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -11045,28 +11076,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2108018294660839</v>
+        <v>0.2086038944069403</v>
       </c>
       <c r="J2" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03051143996868788</v>
+        <v>0.03007372330814939</v>
       </c>
       <c r="M2" t="n">
-        <v>6.759354151524073</v>
+        <v>6.749865833571048</v>
       </c>
       <c r="N2" t="n">
-        <v>76.9831639287987</v>
+        <v>76.77956377716494</v>
       </c>
       <c r="O2" t="n">
-        <v>8.774005010757556</v>
+        <v>8.762394865398667</v>
       </c>
       <c r="P2" t="n">
-        <v>338.5590250049108</v>
+        <v>338.5816332371081</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11123,28 +11154,28 @@
         <v>0.1012</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2027814216090104</v>
+        <v>0.2001998389340922</v>
       </c>
       <c r="J3" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03008417727246837</v>
+        <v>0.02951956493649122</v>
       </c>
       <c r="M3" t="n">
-        <v>6.42322332747639</v>
+        <v>6.415178187913702</v>
       </c>
       <c r="N3" t="n">
-        <v>70.99798345521067</v>
+        <v>70.82765334353104</v>
       </c>
       <c r="O3" t="n">
-        <v>8.426030112408256</v>
+        <v>8.415916666859946</v>
       </c>
       <c r="P3" t="n">
-        <v>316.6580921613051</v>
+        <v>316.6846629392643</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11201,28 +11232,28 @@
         <v>0.0633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06659644142748311</v>
+        <v>0.06853440389172474</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002383686893025483</v>
+        <v>0.002540397307027487</v>
       </c>
       <c r="M4" t="n">
-        <v>7.752175028993994</v>
+        <v>7.736738380122824</v>
       </c>
       <c r="N4" t="n">
-        <v>98.15895401788222</v>
+        <v>97.87966507880802</v>
       </c>
       <c r="O4" t="n">
-        <v>9.907520074059009</v>
+        <v>9.893415238369812</v>
       </c>
       <c r="P4" t="n">
-        <v>322.5420524802154</v>
+        <v>322.5218343409454</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11260,7 +11291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E335"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20105,6 +20136,33 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.462944281391515,174.43596695075485</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.463427693369546,174.43668952624714</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.46364505241891,174.4375525630633</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E336"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7389,6 +7389,27 @@
         <v>327.35</v>
       </c>
       <c r="E336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>326.5566666666667</v>
+      </c>
+      <c r="C337" t="n">
+        <v>305.9215789473685</v>
+      </c>
+      <c r="D337" t="n">
+        <v>311.9633333333333</v>
+      </c>
+      <c r="E337" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7405,7 +7426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10903,6 +10924,16 @@
       </c>
       <c r="B349" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -11291,7 +11322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E336"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20163,6 +20194,33 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-35.46305950897719,174.43590611634815</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-35.463526337456365,174.4366374474454</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-35.463772390847865,174.43748533606046</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -11107,28 +11107,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2086038944069403</v>
+        <v>0.1979177715298482</v>
       </c>
       <c r="J2" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03007372330814939</v>
+        <v>0.02699940545921187</v>
       </c>
       <c r="M2" t="n">
-        <v>6.749865833571048</v>
+        <v>6.786663150210234</v>
       </c>
       <c r="N2" t="n">
-        <v>76.77956377716494</v>
+        <v>77.49096502255543</v>
       </c>
       <c r="O2" t="n">
-        <v>8.762394865398667</v>
+        <v>8.802895263636586</v>
       </c>
       <c r="P2" t="n">
-        <v>338.5816332371081</v>
+        <v>338.6917775912687</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11185,28 +11185,28 @@
         <v>0.1012</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2001998389340922</v>
+        <v>0.1901965941784296</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02951956493649122</v>
+        <v>0.02660748706561789</v>
       </c>
       <c r="M3" t="n">
-        <v>6.415178187913702</v>
+        <v>6.442346374008727</v>
       </c>
       <c r="N3" t="n">
-        <v>70.82765334353104</v>
+        <v>71.39741491376917</v>
       </c>
       <c r="O3" t="n">
-        <v>8.415916666859946</v>
+        <v>8.449699101966244</v>
       </c>
       <c r="P3" t="n">
-        <v>316.6846629392643</v>
+        <v>316.7878221910618</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11263,28 +11263,28 @@
         <v>0.0633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06853440389172474</v>
+        <v>0.06078996419618246</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002540397307027487</v>
+        <v>0.002003559019175594</v>
       </c>
       <c r="M4" t="n">
-        <v>7.736738380122824</v>
+        <v>7.75377726981287</v>
       </c>
       <c r="N4" t="n">
-        <v>97.87966507880802</v>
+        <v>98.04609653561158</v>
       </c>
       <c r="O4" t="n">
-        <v>9.893415238369812</v>
+        <v>9.901822889529562</v>
       </c>
       <c r="P4" t="n">
-        <v>322.5218343409454</v>
+        <v>322.6027877865041</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -11098,13 +11098,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0699</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.096</v>
       </c>
       <c r="I2" t="n">
         <v>0.1979365747775625</v>
@@ -11176,13 +11176,13 @@
         <v>0.4999999999914833</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0851</v>
+        <v>0.0737</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1012</v>
+        <v>0.1102</v>
       </c>
       <c r="I3" t="n">
         <v>0.1901960646311587</v>
@@ -11254,13 +11254,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0582</v>
+        <v>0.0633</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0633</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>0.06076393315477074</v>

--- a/data/nzd0081/nzd0081.xlsx
+++ b/data/nzd0081/nzd0081.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E338"/>
+  <dimension ref="A1:E339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7537,6 +7537,27 @@
       <c r="E338" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>339.96</v>
+      </c>
+      <c r="C339" t="n">
+        <v>317.06</v>
+      </c>
+      <c r="D339" t="n">
+        <v>323.85</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11069,6 +11090,16 @@
       </c>
       <c r="B351" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -11236,34 +11267,34 @@
         <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0699</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0959</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2110055339265116</v>
+        <v>0.2085636232595801</v>
       </c>
       <c r="J2" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1034340961516899</v>
+        <v>0.1016429228779627</v>
       </c>
       <c r="M2" t="n">
-        <v>3.748494864952181</v>
+        <v>3.749253812594771</v>
       </c>
       <c r="N2" t="n">
-        <v>20.73011832628876</v>
+        <v>20.71979331934492</v>
       </c>
       <c r="O2" t="n">
-        <v>4.553033969375669</v>
+        <v>4.551899968073213</v>
       </c>
       <c r="P2" t="n">
-        <v>338.6009702248632</v>
+        <v>338.6266105104861</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11314,34 +11345,34 @@
         <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0737</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1101</v>
+        <v>0.1106</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1997028908489637</v>
+        <v>0.1968047722489407</v>
       </c>
       <c r="J3" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08452961412453996</v>
+        <v>0.08253488647195373</v>
       </c>
       <c r="M3" t="n">
-        <v>3.872359548294337</v>
+        <v>3.876240501428107</v>
       </c>
       <c r="N3" t="n">
-        <v>23.20062647524578</v>
+        <v>23.20383114366983</v>
       </c>
       <c r="O3" t="n">
-        <v>4.816702863499655</v>
+        <v>4.817035514055282</v>
       </c>
       <c r="P3" t="n">
-        <v>316.7749460213015</v>
+        <v>316.8053765319996</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11392,34 +11423,34 @@
         <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0633</v>
+        <v>0.0634</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.0882</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06375597749669989</v>
+        <v>0.06367463052617126</v>
       </c>
       <c r="J4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009922750030310623</v>
+        <v>0.009959408314573981</v>
       </c>
       <c r="M4" t="n">
-        <v>3.839333144578758</v>
+        <v>3.828430050539994</v>
       </c>
       <c r="N4" t="n">
-        <v>21.78584668130281</v>
+        <v>21.72144811804495</v>
       </c>
       <c r="O4" t="n">
-        <v>4.667531111980167</v>
+        <v>4.660627438236718</v>
       </c>
       <c r="P4" t="n">
-        <v>322.3219732922205</v>
+        <v>322.3228274428604</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11457,7 +11488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E338"/>
+  <dimension ref="A1:E339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20591,6 +20622,33 @@
         </is>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-35.46294858484029,174.4359646787523</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-35.46343415726496,174.43668611366022</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-35.46367401805249,174.43753727097723</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
